--- a/Thesis_project/01_data-input/National/MD/pop_empl_unem_edu.xlsx
+++ b/Thesis_project/01_data-input/National/MD/pop_empl_unem_edu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\National\MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D1B6F5-8F12-4B78-8FDA-7DE829FA4098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC277301-3151-4450-9140-122291CE4BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mun010500" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="62">
   <si>
     <t>Population aged 15 years and over by economic status by Level of education, Economic status, Years, Sex and Area</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Moldova</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
@@ -269,15 +272,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2057,1422 +2060,1420 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="27.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="4" customWidth="1"/>
-    <col min="5" max="23" width="9.140625" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="23" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>255.6</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>265.8</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>286.39999999999998</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>305.2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>323.5</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>322.10000000000002</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>393.1</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>371.8</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>394</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>416.6</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="3">
         <v>433.7</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="3">
         <v>469.8</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="3">
         <v>497.2</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="3">
         <v>502.4</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="3">
         <v>499.2</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="3">
         <v>516</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="3">
         <v>520.4</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="3">
         <v>532</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="3">
         <v>536</v>
       </c>
-      <c r="X2" s="7">
-        <v>394.5</v>
+      <c r="X2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>180.8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>190.9</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>205.1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>211.3</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>223.5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>223.8</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>260.5</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>247.4</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>255.7</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>259.10000000000002</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="3">
         <v>262.8</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="3">
         <v>278.3</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="3">
         <v>295.60000000000002</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="3">
         <v>297.89999999999998</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="3">
         <v>288.7</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="3">
         <v>294</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="3">
         <v>297.39999999999998</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="3">
         <v>297.7</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="3">
         <v>303.10000000000002</v>
       </c>
-      <c r="X3" s="7">
-        <v>243.2</v>
+      <c r="X3" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>11.8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>13.2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>13.1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>13.5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>11.9</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>13.3</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>12.5</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>12.4</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>15.6</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="3">
         <v>18.3</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="3">
         <v>16.8</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="3">
         <v>14.8</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="3">
         <v>11.7</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="3">
         <v>14.9</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="3">
         <v>14</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="3">
         <v>11.3</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="X4" s="7">
-        <v>7.1</v>
+      <c r="X4" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>336.6</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>334.5</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>331.2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>319.10000000000002</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>312.3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>333.3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>386.9</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>371.6</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>367.9</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>371.8</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="3">
         <v>368.9</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="3">
         <v>382.6</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="3">
         <v>386.2</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="3">
         <v>371.6</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="3">
         <v>364.5</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="3">
         <v>373</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="3">
         <v>367.7</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="3">
         <v>365.6</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="3">
         <v>375.8</v>
       </c>
-      <c r="X5" s="7">
-        <v>291.10000000000002</v>
+      <c r="X5" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>216.8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>211.4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>209.5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>191.1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>180.7</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>194.3</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>214.2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>211.3</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>206.3</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="3">
         <v>193.7</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="3">
         <v>180.2</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="3">
         <v>193.6</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="3">
         <v>185.5</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="3">
         <v>172.1</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="3">
         <v>163.80000000000001</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="3">
         <v>170.6</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="3">
         <v>163.80000000000001</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="3">
         <v>159.80000000000001</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="3">
         <v>161.30000000000001</v>
       </c>
-      <c r="X6" s="7">
-        <v>127.6</v>
+      <c r="X6" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>22.8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>18.7</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>15.7</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>15.9</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>8.6</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>7</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="3">
         <v>11.8</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="3">
         <v>12</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="3">
         <v>10.6</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="3">
         <v>6.5</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="3">
         <v>7.3</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="3">
         <v>6</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="3">
         <v>6.1</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="3">
         <v>5.7</v>
       </c>
-      <c r="X7" s="7">
-        <v>5</v>
+      <c r="X7" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>589.5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>603.5</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>605.79999999999995</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>624.79999999999995</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>623.70000000000005</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>582.5</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>533</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>562</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>585.5</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>611.5</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="3">
         <v>561.5</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="3">
         <v>541.1</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="3">
         <v>557.9</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="3">
         <v>572.70000000000005</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="3">
         <v>594.1</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="3">
         <v>572.20000000000005</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="3">
         <v>571.4</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="3">
         <v>596.1</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="3">
         <v>601.5</v>
       </c>
-      <c r="X8" s="7">
-        <v>441.9</v>
+      <c r="X8" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>391</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>393.8</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>390.9</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>375.3</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>355.1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>331.2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>294.2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>308.60000000000002</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>319</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="3">
         <v>308.39999999999998</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="3">
         <v>277.2</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="3">
         <v>270.5</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="3">
         <v>258.89999999999998</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="3">
         <v>260.39999999999998</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="3">
         <v>279.3</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="3">
         <v>268.10000000000002</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="3">
         <v>268.5</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="3">
         <v>276.10000000000002</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="3">
         <v>287.2</v>
       </c>
-      <c r="X9" s="7">
-        <v>198.2</v>
+      <c r="X9" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>44.3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>37</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>35.6</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>39.5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>37.4</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>31.5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>25.2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>14.5</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>23.7</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="3">
         <v>22.8</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="3">
         <v>21</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="3">
         <v>15.9</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="3">
         <v>14.5</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="3">
         <v>9.9</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="3">
         <v>13.5</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="3">
         <v>11.3</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="3">
         <v>13.6</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="3">
         <v>8.6</v>
       </c>
-      <c r="X10" s="7">
-        <v>12.1</v>
+      <c r="X10" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>639.20000000000005</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>609.9</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>614.9</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>617.9</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>646</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>679.6</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>670.5</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>679</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>678.4</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="3">
         <v>654.79999999999995</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="3">
         <v>680.5</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="3">
         <v>663.2</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="3">
         <v>637.20000000000005</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="3">
         <v>633.9</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="3">
         <v>637.20000000000005</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="3">
         <v>648.9</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="3">
         <v>630.70000000000005</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="3">
         <v>628.6</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="3">
         <v>616</v>
       </c>
-      <c r="X11" s="7">
-        <v>418.8</v>
+      <c r="X11" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>360.4</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>342.4</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>331.2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>294.10000000000002</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>291.39999999999998</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>294.89999999999998</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>250.6</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>253.6</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>252.3</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <v>234.7</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="3">
         <v>236.8</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="3">
         <v>233.2</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="3">
         <v>216.9</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="3">
         <v>225.5</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="3">
         <v>227.4</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="3">
         <v>239.1</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="3">
         <v>241</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="3">
         <v>234.5</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="3">
         <v>234.5</v>
       </c>
-      <c r="X12" s="7">
-        <v>154.80000000000001</v>
+      <c r="X12" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>37.799999999999997</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>29.2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>24</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>24.5</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>27.2</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>25.6</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>23.9</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>15.1</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>15.6</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="3">
         <v>22</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="3">
         <v>15.3</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="3">
         <v>12.8</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="3">
         <v>10.3</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="3">
         <v>6.5</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>608.6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>629.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>648.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>667.2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>677.4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>692.6</v>
+      </c>
+      <c r="K14" s="3">
+        <v>675.5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>689.2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>675.6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>680.8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>714.3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>720.7</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>725.6</v>
+      </c>
+      <c r="R14" s="3">
+        <v>742.5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>747.6</v>
+      </c>
+      <c r="T14" s="3">
+        <v>741.3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>768.6</v>
+      </c>
+      <c r="V14" s="3">
+        <v>747.2</v>
+      </c>
+      <c r="W14" s="3">
+        <v>739.3</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3">
+        <v>277.7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="G15" s="3">
+        <v>291.7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>242.4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>228.7</v>
+      </c>
+      <c r="J15" s="3">
+        <v>235</v>
+      </c>
+      <c r="K15" s="3">
+        <v>208.9</v>
+      </c>
+      <c r="L15" s="3">
+        <v>205.4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>203</v>
+      </c>
+      <c r="N15" s="3">
+        <v>177.1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>178.1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>189</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>182.1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>209</v>
+      </c>
+      <c r="S15" s="3">
+        <v>217.5</v>
+      </c>
+      <c r="T15" s="3">
+        <v>224.8</v>
+      </c>
+      <c r="U15" s="3">
+        <v>242.1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>234.1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>258.8</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="K16" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="L16" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="N16" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="O16" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="P16" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R16" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="S16" s="3">
+        <v>9</v>
+      </c>
+      <c r="T16" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="U16" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="V16" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="W16" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>334.5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>349.8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>319.8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>298.3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="K17" s="3">
+        <v>274.2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>258.2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>240.5</v>
+      </c>
+      <c r="N17" s="3">
+        <v>223</v>
+      </c>
+      <c r="O17" s="3">
+        <v>209.7</v>
+      </c>
+      <c r="P17" s="3">
+        <v>197.7</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>178.6</v>
+      </c>
+      <c r="R17" s="3">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="S17" s="3">
+        <v>145.9</v>
+      </c>
+      <c r="T17" s="3">
+        <v>135.9</v>
+      </c>
+      <c r="U17" s="3">
+        <v>126.7</v>
+      </c>
+      <c r="V17" s="3">
+        <v>114.3</v>
+      </c>
+      <c r="W17" s="3">
+        <v>114.3</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3">
+        <v>87.9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G18" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="H18" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="J18" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="L18" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="M18" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="N18" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P18" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="Q18" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="R18" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="S18" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T18" s="3">
+        <v>7</v>
+      </c>
+      <c r="U18" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="V18" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="W18" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="6">
-        <v>608.6</v>
-      </c>
-      <c r="F14" s="6">
-        <v>629.1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>648.5</v>
-      </c>
-      <c r="H14" s="6">
-        <v>667.2</v>
-      </c>
-      <c r="I14" s="6">
-        <v>677.4</v>
-      </c>
-      <c r="J14" s="6">
-        <v>692.6</v>
-      </c>
-      <c r="K14" s="6">
-        <v>675.5</v>
-      </c>
-      <c r="L14" s="6">
-        <v>689.2</v>
-      </c>
-      <c r="M14" s="6">
-        <v>675.6</v>
-      </c>
-      <c r="N14" s="6">
-        <v>680.8</v>
-      </c>
-      <c r="O14" s="6">
-        <v>714.3</v>
-      </c>
-      <c r="P14" s="6">
-        <v>720.7</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>725.6</v>
-      </c>
-      <c r="R14" s="6">
-        <v>742.5</v>
-      </c>
-      <c r="S14" s="6">
-        <v>747.6</v>
-      </c>
-      <c r="T14" s="6">
-        <v>741.3</v>
-      </c>
-      <c r="U14" s="6">
-        <v>768.6</v>
-      </c>
-      <c r="V14" s="6">
-        <v>747.2</v>
-      </c>
-      <c r="W14" s="6">
-        <v>739.3</v>
-      </c>
-      <c r="X14" s="7">
-        <v>541.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="6">
-        <v>277.7</v>
-      </c>
-      <c r="F15" s="6">
-        <v>280.10000000000002</v>
-      </c>
-      <c r="G15" s="6">
-        <v>291.7</v>
-      </c>
-      <c r="H15" s="6">
-        <v>242.4</v>
-      </c>
-      <c r="I15" s="6">
-        <v>228.7</v>
-      </c>
-      <c r="J15" s="6">
-        <v>235</v>
-      </c>
-      <c r="K15" s="6">
-        <v>208.9</v>
-      </c>
-      <c r="L15" s="6">
-        <v>205.4</v>
-      </c>
-      <c r="M15" s="6">
-        <v>203</v>
-      </c>
-      <c r="N15" s="6">
-        <v>177.1</v>
-      </c>
-      <c r="O15" s="6">
-        <v>178.1</v>
-      </c>
-      <c r="P15" s="6">
-        <v>189</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>182.1</v>
-      </c>
-      <c r="R15" s="6">
-        <v>209</v>
-      </c>
-      <c r="S15" s="6">
-        <v>217.5</v>
-      </c>
-      <c r="T15" s="6">
-        <v>224.8</v>
-      </c>
-      <c r="U15" s="6">
-        <v>242.1</v>
-      </c>
-      <c r="V15" s="6">
-        <v>234.1</v>
-      </c>
-      <c r="W15" s="6">
-        <v>258.8</v>
-      </c>
-      <c r="X15" s="7">
-        <v>145.30000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="6">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F16" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G16" s="6">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H16" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="I16" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="J16" s="6">
-        <v>17.8</v>
-      </c>
-      <c r="K16" s="6">
-        <v>20.6</v>
-      </c>
-      <c r="L16" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="M16" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="N16" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="O16" s="6">
-        <v>16.8</v>
-      </c>
-      <c r="P16" s="6">
-        <v>14.7</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="R16" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="S16" s="6">
-        <v>9</v>
-      </c>
-      <c r="T16" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="U16" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="V16" s="6">
-        <v>10.6</v>
-      </c>
-      <c r="W16" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="X16" s="7">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="6">
-        <v>334.5</v>
-      </c>
-      <c r="F17" s="6">
-        <v>349.8</v>
-      </c>
-      <c r="G17" s="6">
-        <v>336.6</v>
-      </c>
-      <c r="H17" s="6">
-        <v>319.8</v>
-      </c>
-      <c r="I17" s="6">
-        <v>298.3</v>
-      </c>
-      <c r="J17" s="6">
-        <v>295.39999999999998</v>
-      </c>
-      <c r="K17" s="6">
-        <v>274.2</v>
-      </c>
-      <c r="L17" s="6">
-        <v>258.2</v>
-      </c>
-      <c r="M17" s="6">
-        <v>240.5</v>
-      </c>
-      <c r="N17" s="6">
-        <v>223</v>
-      </c>
-      <c r="O17" s="6">
-        <v>209.7</v>
-      </c>
-      <c r="P17" s="6">
-        <v>197.7</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>178.6</v>
-      </c>
-      <c r="R17" s="6">
-        <v>163.80000000000001</v>
-      </c>
-      <c r="S17" s="6">
-        <v>145.9</v>
-      </c>
-      <c r="T17" s="6">
-        <v>135.9</v>
-      </c>
-      <c r="U17" s="6">
-        <v>126.7</v>
-      </c>
-      <c r="V17" s="6">
-        <v>114.3</v>
-      </c>
-      <c r="W17" s="6">
-        <v>114.3</v>
-      </c>
-      <c r="X17" s="7">
-        <v>87.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="6">
-        <v>87.9</v>
-      </c>
-      <c r="F18" s="6">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="G18" s="6">
-        <v>76.7</v>
-      </c>
-      <c r="H18" s="6">
-        <v>42.3</v>
-      </c>
-      <c r="I18" s="6">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="J18" s="6">
-        <v>39.5</v>
-      </c>
-      <c r="K18" s="6">
-        <v>28.8</v>
-      </c>
-      <c r="L18" s="6">
-        <v>20.9</v>
-      </c>
-      <c r="M18" s="6">
-        <v>14.8</v>
-      </c>
-      <c r="N18" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="O18" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P18" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="R18" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="S18" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="T18" s="6">
-        <v>7</v>
-      </c>
-      <c r="U18" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="V18" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="W18" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="X18" s="7">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>0.7</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>1.3</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>1.9</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>1.8</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>1.2</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>0.9</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="3">
         <v>0.6</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="3">
         <v>0.3</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="3">
         <v>0.4</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="3">
         <v>0.2</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="3">
         <v>0.5</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="3">
         <v>0.4</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="3">
         <v>0.9</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="3">
         <v>0.1</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="3">
         <v>0.3</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="3">
         <v>0.3</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="3">
         <v>0.2</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="3">
         <v>0.5</v>
       </c>
-      <c r="X19" s="7">
-        <v>0.5</v>
+      <c r="X19" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
